--- a/civic/911tes2.xlsx
+++ b/civic/911tes2.xlsx
@@ -24,402 +24,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="132">
-  <si>
-    <t>704123</t>
-  </si>
-  <si>
-    <t>801A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
   <si>
     <t>00</t>
-  </si>
-  <si>
-    <t>124305</t>
-  </si>
-  <si>
-    <t>773B</t>
-  </si>
-  <si>
-    <t>100308</t>
-  </si>
-  <si>
-    <t>773A</t>
-  </si>
-  <si>
-    <t>403500</t>
-  </si>
-  <si>
-    <t>766A</t>
-  </si>
-  <si>
-    <t>100093</t>
-  </si>
-  <si>
-    <t>792B</t>
-  </si>
-  <si>
-    <t>601528</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>100096</t>
-  </si>
-  <si>
-    <t>908418</t>
-  </si>
-  <si>
-    <t>776A</t>
-  </si>
-  <si>
-    <t>851</t>
-  </si>
-  <si>
-    <t>100128</t>
-  </si>
-  <si>
-    <t>767A</t>
-  </si>
-  <si>
-    <t>100294</t>
-  </si>
-  <si>
-    <t>803X</t>
-  </si>
-  <si>
-    <t>908210</t>
-  </si>
-  <si>
-    <t>100413</t>
-  </si>
-  <si>
-    <t>768A</t>
-  </si>
-  <si>
-    <t>506117</t>
-  </si>
-  <si>
-    <t>765A</t>
-  </si>
-  <si>
-    <t>704157</t>
-  </si>
-  <si>
-    <t>776B</t>
-  </si>
-  <si>
-    <t>100437</t>
-  </si>
-  <si>
-    <t>770B</t>
-  </si>
-  <si>
-    <t>8T2230</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>784BU</t>
-  </si>
-  <si>
-    <t>802215</t>
-  </si>
-  <si>
-    <t>767DPT</t>
-  </si>
-  <si>
-    <t>772A</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>806A</t>
-  </si>
-  <si>
-    <t>403121</t>
-  </si>
-  <si>
-    <t>782B</t>
-  </si>
-  <si>
-    <t>800151</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>601310</t>
-  </si>
-  <si>
-    <t>601103</t>
-  </si>
-  <si>
-    <t>802152</t>
-  </si>
-  <si>
-    <t>790A</t>
-  </si>
-  <si>
-    <t>601231</t>
-  </si>
-  <si>
-    <t>800188</t>
-  </si>
-  <si>
-    <t>805A</t>
-  </si>
-  <si>
-    <t>100427</t>
-  </si>
-  <si>
-    <t>100140</t>
-  </si>
-  <si>
-    <t>100283</t>
-  </si>
-  <si>
-    <t>100123</t>
-  </si>
-  <si>
-    <t>772C</t>
-  </si>
-  <si>
-    <t>207481</t>
-  </si>
-  <si>
-    <t>900326</t>
-  </si>
-  <si>
-    <t>100092</t>
-  </si>
-  <si>
-    <t>100161</t>
-  </si>
-  <si>
-    <t>704340</t>
-  </si>
-  <si>
-    <t>790ALR</t>
-  </si>
-  <si>
-    <t>210121</t>
-  </si>
-  <si>
-    <t>774BU</t>
-  </si>
-  <si>
-    <t>100468</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>800217</t>
-  </si>
-  <si>
-    <t>784A</t>
-  </si>
-  <si>
-    <t>704153</t>
-  </si>
-  <si>
-    <t>400246</t>
-  </si>
-  <si>
-    <t>100381</t>
-  </si>
-  <si>
-    <t>908108</t>
-  </si>
-  <si>
     <t>02</t>
-  </si>
-  <si>
-    <t>122100</t>
-  </si>
-  <si>
-    <t>774B</t>
-  </si>
-  <si>
-    <t>601301</t>
-  </si>
-  <si>
-    <t>781D</t>
-  </si>
-  <si>
-    <t>506336</t>
-  </si>
-  <si>
-    <t>767E</t>
-  </si>
-  <si>
-    <t>100231</t>
-  </si>
-  <si>
-    <t>100403</t>
-  </si>
-  <si>
-    <t>772AU</t>
-  </si>
-  <si>
-    <t>506325</t>
-  </si>
-  <si>
-    <t>100725</t>
-  </si>
-  <si>
-    <t>100357</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>790B</t>
-  </si>
-  <si>
-    <t>600708</t>
-  </si>
-  <si>
-    <t>404608</t>
-  </si>
-  <si>
-    <t>100162</t>
-  </si>
-  <si>
-    <t>802236</t>
-  </si>
-  <si>
-    <t>121204</t>
-  </si>
-  <si>
-    <t>774AS</t>
-  </si>
-  <si>
-    <t>207142</t>
-  </si>
-  <si>
-    <t>207122</t>
-  </si>
-  <si>
-    <t>900103</t>
-  </si>
-  <si>
-    <t>775A</t>
-  </si>
-  <si>
-    <t>908211</t>
-  </si>
-  <si>
-    <t>801EW</t>
-  </si>
-  <si>
-    <t>601142</t>
-  </si>
-  <si>
-    <t>123415</t>
-  </si>
-  <si>
-    <t>100233</t>
-  </si>
-  <si>
-    <t>774C</t>
-  </si>
-  <si>
-    <t>210221</t>
   </si>
   <si>
     <t>03</t>
   </si>
   <si>
-    <t>506353</t>
-  </si>
-  <si>
-    <t>792C</t>
-  </si>
-  <si>
-    <t>908406</t>
-  </si>
-  <si>
-    <t>100272</t>
-  </si>
-  <si>
-    <t>601041</t>
-  </si>
-  <si>
-    <t>988048</t>
-  </si>
-  <si>
-    <t>791AW</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>900105</t>
-  </si>
-  <si>
-    <t>506423</t>
-  </si>
-  <si>
-    <t>704320</t>
-  </si>
-  <si>
-    <t>506342</t>
-  </si>
-  <si>
-    <t>802238</t>
-  </si>
-  <si>
-    <t>404649</t>
-  </si>
-  <si>
-    <t>100311</t>
-  </si>
-  <si>
-    <t>774AU</t>
-  </si>
-  <si>
-    <t>506441</t>
-  </si>
-  <si>
-    <t>900360</t>
-  </si>
-  <si>
-    <t>792A</t>
-  </si>
-  <si>
-    <t>100412</t>
-  </si>
-  <si>
-    <t>988043</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
-    <t>122102</t>
+    <t>1</t>
   </si>
   <si>
-    <t>768B</t>
+    <t>2</t>
   </si>
   <si>
-    <t>100347</t>
+    <t>3</t>
   </si>
   <si>
-    <t>100095</t>
+    <t>4</t>
   </si>
   <si>
-    <t>774A</t>
+    <t>5</t>
   </si>
   <si>
-    <t>704645</t>
+    <t>6</t>
   </si>
   <si>
-    <t>601412</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>type3</t>
+  </si>
+  <si>
+    <t>type4</t>
+  </si>
+  <si>
+    <t>type5</t>
   </si>
 </sst>
 </file>
@@ -788,13 +452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="11.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
@@ -807,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -826,13 +491,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -847,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -862,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -880,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -898,13 +563,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -916,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -934,13 +599,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -952,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -970,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -988,13 +653,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1006,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1024,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1042,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1060,13 +725,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1078,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1096,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,13 +779,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1132,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1150,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1168,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1186,13 +851,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1204,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1222,13 +887,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1240,13 +905,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1258,13 +923,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1276,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1294,13 +959,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1312,13 +977,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1330,13 +995,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1348,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1366,13 +1031,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1384,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1402,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1420,13 +1085,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1438,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1456,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1474,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1492,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1510,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1528,13 +1193,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1546,13 +1211,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1564,13 +1229,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1582,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1600,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1618,13 +1283,13 @@
         <v>5</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1636,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1654,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1672,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1690,13 +1355,13 @@
         <v>5</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1708,13 +1373,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1726,13 +1391,13 @@
         <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1744,13 +1409,13 @@
         <v>5</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1762,13 +1427,13 @@
         <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1780,13 +1445,13 @@
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1798,13 +1463,13 @@
         <v>5</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1816,13 +1481,13 @@
         <v>5</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1834,13 +1499,13 @@
         <v>5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1852,13 +1517,13 @@
         <v>5</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,13 +1535,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1888,13 +1553,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1906,13 +1571,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1924,13 +1589,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1942,13 +1607,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1960,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1978,13 +1643,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1996,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2014,13 +1679,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2032,13 +1697,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2050,13 +1715,13 @@
         <v>5</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2068,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2086,13 +1751,13 @@
         <v>5</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2104,13 +1769,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2122,13 +1787,13 @@
         <v>5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2140,13 +1805,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2158,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2176,13 +1841,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2194,13 +1859,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2212,13 +1877,13 @@
         <v>5</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2230,13 +1895,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2248,13 +1913,13 @@
         <v>5</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2266,13 +1931,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2284,13 +1949,13 @@
         <v>5</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2302,13 +1967,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2320,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2338,13 +2003,13 @@
         <v>5</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2356,13 +2021,13 @@
         <v>5</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2374,13 +2039,13 @@
         <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2392,13 +2057,13 @@
         <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2410,13 +2075,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2428,13 +2093,13 @@
         <v>5</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2446,13 +2111,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2464,13 +2129,13 @@
         <v>5</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2482,13 +2147,13 @@
         <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2500,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2518,13 +2183,13 @@
         <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2536,13 +2201,13 @@
         <v>5</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2554,13 +2219,13 @@
         <v>5</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2572,13 +2237,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2590,13 +2255,13 @@
         <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
